--- a/biology/Botanique/Marcel_Guinochet/Marcel_Guinochet.xlsx
+++ b/biology/Botanique/Marcel_Guinochet/Marcel_Guinochet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marcel Guinochet (1909-1997) est un botaniste et phytosociologue français.
 </t>
@@ -511,13 +523,49 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Guinochet, M. 1938. Études sur la végétation de l'étage alpin dans le bassin supérieur de la Tinee. Ed. Bosc Freres M. &amp; I. Riou, Lyon
-----. 1940.  Observations sur la végétation des étages montagnard et subalpin dans le bassin du Giffre (Haut-Savoie). Paris: Librairie Générale de l'Enseignement
-Livres
-Guinochet, M. 1955. Logique et dynamique du peuplement végétal: phytogéographie, phytosociologie biosystématique, applications agronomiques. Ed. Masson (París): Collection Évolution des sciences 7. 143 pp.
-----; A Brunel, M Duflo, Didier Dacunha-Castelle. 1965. Notions fondamentales de Botanique générale [1]. París : Masson et Cie
+----. 1940.  Observations sur la végétation des étages montagnard et subalpin dans le bassin du Giffre (Haut-Savoie). Paris: Librairie Générale de l'Enseignement</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Marcel_Guinochet</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marcel_Guinochet</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Guinochet, M. 1955. Logique et dynamique du peuplement végétal: phytogéographie, phytosociologie biosystématique, applications agronomiques. Ed. Masson (París): Collection Évolution des sciences 7. 143 pp.
+----; A Brunel, M Duflo, Didier Dacunha-Castelle. 1965. Notions fondamentales de Botanique générale . París : Masson et Cie
 ----. 1973.  Phytosociologie. Collection d'écologie, 1. Ed. Masson (París). vi + 227 pp.  (ISBN 2-225-35618-1) (BNF 35272601)
 ----. 1975.  La Flore Du Bassin Mediterraneen: Essai De Systematique Synthetique. Actes Du Colloque, Montpellier, 4-8 juin 1974. Ed. Centre national de la recherche scientifique. 576 pp.  (ISBN 2-222-01764-5)
 ----; R Vilmorin. 1998. Flore de France (fasc. 1). Ed. Rolters Kluwer (DOIN).  (ISBN 978-2-7040-0286-3)
@@ -527,38 +575,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Marcel_Guinochet</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Marcel_Guinochet</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Hommages</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Éponymes
-(Campanulaceae) Campanula guinochetii Quézel Bull. Soc. Sci. Nat. Maroc xxxi. 260 1953 (IK)
-(Poaceae) Festuca guinochetii (Bidault) S.Arndt Pl. Syst. Evol. 271(3-4): 136. 2008</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -580,10 +596,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Hommages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Éponymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Campanulaceae) Campanula guinochetii Quézel Bull. Soc. Sci. Nat. Maroc xxxi. 260 1953 (IK)
+(Poaceae) Festuca guinochetii (Bidault) S.Arndt Pl. Syst. Evol. 271(3-4): 136. 2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marcel_Guinochet</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marcel_Guinochet</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>André Charpin; Gérard-Guy Aymonin. 2004. Bibliographie sélective des Flores de France. V. Notices biographiques sur les auteurs cités : P-Z et compléments. Le Journal de Botanique de la Société botanique de France, 27 : 47-87</t>
         </is>
